--- a/upload_files/CV2__JL1_-_Oracle.xlsx
+++ b/upload_files/CV2__JL1_-_Oracle.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="183">
   <si>
     <t>CV ID</t>
   </si>
@@ -49,7 +49,7 @@
     <t>CLUSTER SOFT SCORE</t>
   </si>
   <si>
-    <t>CV2.pdf</t>
+    <t>CV2.docx</t>
   </si>
   <si>
     <t>JL1_-_Oracle.doc</t>
@@ -64,7 +64,7 @@
     <t>dba : 8</t>
   </si>
   <si>
-    <t>oracle database : 26</t>
+    <t>oracle database : 28</t>
   </si>
   <si>
     <t>database administrator : 7</t>
@@ -76,13 +76,13 @@
     <t>testing : 3</t>
   </si>
   <si>
-    <t>database : 35</t>
+    <t>database : 36</t>
   </si>
   <si>
     <t>oracle : 33</t>
   </si>
   <si>
-    <t>interpersonal skills : 3</t>
+    <t>interpersonal skills : 4</t>
   </si>
   <si>
     <t>analytical : 1</t>
@@ -121,7 +121,7 @@
     <t>toad : 2</t>
   </si>
   <si>
-    <t>rman : 11</t>
+    <t>rman : 12</t>
   </si>
   <si>
     <t>asm : 3</t>
@@ -169,7 +169,7 @@
     <t>administration : 19</t>
   </si>
   <si>
-    <t>postgresql : 3</t>
+    <t>postgresql : 4</t>
   </si>
   <si>
     <t>management : 16</t>
@@ -178,16 +178,16 @@
     <t>weblogic : 2</t>
   </si>
   <si>
-    <t>performance tuning : 8</t>
+    <t>performance tuning : 9</t>
   </si>
   <si>
     <t>tuning : 9</t>
   </si>
   <si>
-    <t>monitoring : 10</t>
-  </si>
-  <si>
-    <t>backup : 7</t>
+    <t>monitoring : 12</t>
+  </si>
+  <si>
+    <t>backup : 8</t>
   </si>
   <si>
     <t>recovery : 9</t>
@@ -226,7 +226,7 @@
     <t>reporting : 7</t>
   </si>
   <si>
-    <t>enterprise manager : 7</t>
+    <t>enterprise manager : 8</t>
   </si>
   <si>
     <t>manager : 7</t>
@@ -304,7 +304,7 @@
     <t>best practices : 1</t>
   </si>
   <si>
-    <t>automation : 4</t>
+    <t>automation : 6</t>
   </si>
   <si>
     <t>tools : 2</t>
@@ -325,13 +325,13 @@
     <t>tibco : 1</t>
   </si>
   <si>
-    <t>shell scripts : 4</t>
+    <t>shell scripts : 3</t>
   </si>
   <si>
     <t>tables : 5</t>
   </si>
   <si>
-    <t>optimization : 4</t>
+    <t>optimization : 5</t>
   </si>
   <si>
     <t>infrastructure : 1</t>
@@ -466,7 +466,7 @@
     <t>modeling : 1</t>
   </si>
   <si>
-    <t>shell : 1</t>
+    <t>shell : 2</t>
   </si>
   <si>
     <t>c : 1</t>
@@ -499,61 +499,64 @@
     <t>ms sql server : 1</t>
   </si>
   <si>
+    <t>pl/sql : 2</t>
+  </si>
+  <si>
+    <t>rac : 1</t>
+  </si>
+  <si>
+    <t>linux : 1</t>
+  </si>
+  <si>
+    <t>database : 1</t>
+  </si>
+  <si>
+    <t>oracle rac : 2</t>
+  </si>
+  <si>
     <t>production : 1</t>
   </si>
   <si>
+    <t>manager : 1</t>
+  </si>
+  <si>
+    <t>administration : 2</t>
+  </si>
+  <si>
+    <t>rman : 1</t>
+  </si>
+  <si>
+    <t>enterprise manager : 1</t>
+  </si>
+  <si>
     <t>oracle : 11</t>
   </si>
   <si>
-    <t>linux : 1</t>
-  </si>
-  <si>
-    <t>manager : 1</t>
-  </si>
-  <si>
-    <t>oracle rac : 2</t>
-  </si>
-  <si>
-    <t>rac : 1</t>
-  </si>
-  <si>
-    <t>administration : 2</t>
-  </si>
-  <si>
-    <t>database : 1</t>
-  </si>
-  <si>
-    <t>rman : 1</t>
-  </si>
-  <si>
-    <t>enterprise manager : 1</t>
-  </si>
-  <si>
     <t>90.90</t>
   </si>
   <si>
+    <t>communication skills : 2</t>
+  </si>
+  <si>
+    <t>tools : 1</t>
+  </si>
+  <si>
+    <t>linux : 2</t>
+  </si>
+  <si>
+    <t>management : 1</t>
+  </si>
+  <si>
+    <t>red hat : 2</t>
+  </si>
+  <si>
+    <t>scripting : 1</t>
+  </si>
+  <si>
     <t>design : 1</t>
   </si>
   <si>
-    <t>communication skills : 2</t>
-  </si>
-  <si>
     <t>process : 1</t>
-  </si>
-  <si>
-    <t>scripting : 1</t>
-  </si>
-  <si>
-    <t>linux : 2</t>
-  </si>
-  <si>
-    <t>red hat : 2</t>
-  </si>
-  <si>
-    <t>tools : 1</t>
-  </si>
-  <si>
-    <t>management : 1</t>
   </si>
   <si>
     <t>42.85</t>
@@ -900,7 +903,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K148"/>
+  <dimension ref="A1:K149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -968,19 +971,19 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H2" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="I2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -988,7 +991,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H3" t="s">
         <v>173</v>
@@ -999,7 +1002,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H4" t="s">
         <v>174</v>
@@ -1010,7 +1013,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H5" t="s">
         <v>175</v>
@@ -1021,7 +1024,7 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H6" t="s">
         <v>176</v>
@@ -1032,10 +1035,10 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H7" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1043,10 +1046,10 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1054,10 +1057,10 @@
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1065,10 +1068,10 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1076,7 +1079,7 @@
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1762,6 +1765,11 @@
     <row r="148" spans="5:5">
       <c r="E148" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="149" spans="5:5">
+      <c r="E149" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/upload_files/CV2__JL1_-_Oracle.xlsx
+++ b/upload_files/CV2__JL1_-_Oracle.xlsx
@@ -502,61 +502,61 @@
     <t>pl/sql : 2</t>
   </si>
   <si>
+    <t>administration : 2</t>
+  </si>
+  <si>
+    <t>oracle rac : 2</t>
+  </si>
+  <si>
+    <t>database : 1</t>
+  </si>
+  <si>
+    <t>oracle : 11</t>
+  </si>
+  <si>
+    <t>enterprise manager : 1</t>
+  </si>
+  <si>
+    <t>production : 1</t>
+  </si>
+  <si>
+    <t>linux : 1</t>
+  </si>
+  <si>
     <t>rac : 1</t>
   </si>
   <si>
-    <t>linux : 1</t>
-  </si>
-  <si>
-    <t>database : 1</t>
-  </si>
-  <si>
-    <t>oracle rac : 2</t>
-  </si>
-  <si>
-    <t>production : 1</t>
+    <t>rman : 1</t>
   </si>
   <si>
     <t>manager : 1</t>
   </si>
   <si>
-    <t>administration : 2</t>
-  </si>
-  <si>
-    <t>rman : 1</t>
-  </si>
-  <si>
-    <t>enterprise manager : 1</t>
-  </si>
-  <si>
-    <t>oracle : 11</t>
-  </si>
-  <si>
     <t>90.90</t>
   </si>
   <si>
     <t>communication skills : 2</t>
   </si>
   <si>
+    <t>linux : 2</t>
+  </si>
+  <si>
+    <t>red hat : 2</t>
+  </si>
+  <si>
+    <t>management : 1</t>
+  </si>
+  <si>
+    <t>process : 1</t>
+  </si>
+  <si>
+    <t>design : 1</t>
+  </si>
+  <si>
     <t>tools : 1</t>
   </si>
   <si>
-    <t>linux : 2</t>
-  </si>
-  <si>
-    <t>management : 1</t>
-  </si>
-  <si>
-    <t>red hat : 2</t>
-  </si>
-  <si>
     <t>scripting : 1</t>
-  </si>
-  <si>
-    <t>design : 1</t>
-  </si>
-  <si>
-    <t>process : 1</t>
   </si>
   <si>
     <t>42.85</t>
